--- a/01 Raw/comunidade/Raw/Lista_influentes.xlsx
+++ b/01 Raw/comunidade/Raw/Lista_influentes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\01 Raw\comunidade\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CD263-20A0-474B-97DC-AF376CAF1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7163CE-062D-432B-917C-54BEFAA715C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="0" windowWidth="12696" windowHeight="12240" xr2:uid="{1E778F05-CB12-477C-9B16-59BA3DB29358}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E778F05-CB12-477C-9B16-59BA3DB29358}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista de influentes presentes" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista de presentes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,50 +47,50 @@
     <t>nome_comunidade</t>
   </si>
   <si>
-    <t>Total &lt; 24 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total  &gt; 24 anos
+    <t>Nampula</t>
+  </si>
+  <si>
+    <t>Nachilapa</t>
+  </si>
+  <si>
+    <t>Cunle</t>
+  </si>
+  <si>
+    <t>Lapala</t>
+  </si>
+  <si>
+    <t>Norre</t>
+  </si>
+  <si>
+    <t>Chica</t>
+  </si>
+  <si>
+    <t>Itoculo</t>
+  </si>
+  <si>
+    <t>Nacololo</t>
+  </si>
+  <si>
+    <t>Murruto</t>
+  </si>
+  <si>
+    <t>Participantes do Sexo Masculino dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t>Participantes do Sexo Masculino dos 25 - 35  anos</t>
+  </si>
+  <si>
+    <t>Participantes do sexo Feminino dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t>Participantes do sexo Feminino dos 25 - 35 anos</t>
+  </si>
+  <si>
+    <t>Total dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  dos 25 - 35 anos
 </t>
-  </si>
-  <si>
-    <t>Participantes do Sexo Masculino &lt; 24 anos</t>
-  </si>
-  <si>
-    <t>Participantes do Sexo Masculino &gt; 24  anos</t>
-  </si>
-  <si>
-    <t>Participantes do sexo Feminino &lt; 24 anos</t>
-  </si>
-  <si>
-    <t>Participantes do sexo Feminino &gt; 24 anos</t>
-  </si>
-  <si>
-    <t>Nampula</t>
-  </si>
-  <si>
-    <t>Nachilapa</t>
-  </si>
-  <si>
-    <t>Cunle</t>
-  </si>
-  <si>
-    <t>Lapala</t>
-  </si>
-  <si>
-    <t>Norre</t>
-  </si>
-  <si>
-    <t>Chica</t>
-  </si>
-  <si>
-    <t>Itoculo</t>
-  </si>
-  <si>
-    <t>Nacololo</t>
-  </si>
-  <si>
-    <t>Murruto</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
     <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,22 +523,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>14</v>
@@ -608,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>12</v>
@@ -639,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>14</v>
@@ -670,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>15</v>
@@ -701,10 +701,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>12</v>
@@ -732,10 +732,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -763,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
